--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d52fed4db2de6dc/Documents/academic/CUNY SPS/DATA624/proj1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d52fed4db2de6dc/Documents/academic/CUNY SPS/DATA624/DATA624_HW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F400FD47-94B7-46A2-BD10-C4D0DC4D284A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D58DC4C-88C7-41AB-85EA-0E8B0A6EE376}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F400FD47-94B7-46A2-BD10-C4D0DC4D284A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC2B4872-8439-4860-BEC1-ADB4EE7746EC}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12312" xr2:uid="{D20E6CB8-0A87-4C64-B5C6-42BCF3BA59F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{D20E6CB8-0A87-4C64-B5C6-42BCF3BA59F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,9 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D70D7A-E469-444C-AAC9-B947E99AF3E6}">
-  <dimension ref="A1:M1763"/>
+  <dimension ref="A1:M1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1601" workbookViewId="0">
+      <selection activeCell="C1617" sqref="C1617"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -66878,706 +66880,6 @@
         <v>47.970001000000003</v>
       </c>
     </row>
-    <row r="1624" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1624">
-        <v>43022</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1625">
-        <v>43023</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1626">
-        <v>43024</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1627">
-        <v>43025</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1628">
-        <v>43028</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1629">
-        <v>43029</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1630">
-        <v>43030</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1631">
-        <v>43031</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1632">
-        <v>43032</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1633">
-        <v>43035</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1634">
-        <v>43036</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1635">
-        <v>43037</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1636">
-        <v>43038</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1637">
-        <v>43039</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1638">
-        <v>43043</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1639">
-        <v>43044</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1640">
-        <v>43045</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1641">
-        <v>43046</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1642">
-        <v>43049</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1643">
-        <v>43050</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1644">
-        <v>43051</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1645">
-        <v>43052</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1646">
-        <v>43053</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1647">
-        <v>43056</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1648">
-        <v>43057</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1649">
-        <v>43058</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1650">
-        <v>43059</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1651">
-        <v>43060</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1652">
-        <v>43063</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1653">
-        <v>43064</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1654">
-        <v>43065</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1655">
-        <v>43066</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1656">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1657">
-        <v>43070</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1658">
-        <v>43071</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1659">
-        <v>43072</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1660">
-        <v>43073</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1661">
-        <v>43074</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1662">
-        <v>43077</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1663">
-        <v>43078</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1664">
-        <v>43079</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1665">
-        <v>43080</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1666">
-        <v>43081</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1667">
-        <v>43084</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1668">
-        <v>43085</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1669">
-        <v>43086</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1670">
-        <v>43087</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1671">
-        <v>43088</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1672">
-        <v>43091</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1673">
-        <v>43092</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1674">
-        <v>43093</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1675">
-        <v>43094</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1676">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1677">
-        <v>43098</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1678">
-        <v>43099</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1679">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1680">
-        <v>43101</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1681">
-        <v>43102</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1682">
-        <v>43106</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1683">
-        <v>43107</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1684">
-        <v>43108</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1685">
-        <v>43109</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1686">
-        <v>43112</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1687">
-        <v>43113</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1688">
-        <v>43114</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1689">
-        <v>43115</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1690">
-        <v>43116</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1691">
-        <v>43119</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1692">
-        <v>43120</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1693">
-        <v>43121</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1694">
-        <v>43122</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1695">
-        <v>43123</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1696">
-        <v>43126</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1697">
-        <v>43127</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1698">
-        <v>43128</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1699">
-        <v>43129</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1700">
-        <v>43130</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1701">
-        <v>43133</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1702">
-        <v>43134</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1703">
-        <v>43135</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1704">
-        <v>43136</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1705">
-        <v>43137</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1706">
-        <v>43140</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1707">
-        <v>43141</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1708">
-        <v>43142</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1709">
-        <v>43143</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1710">
-        <v>43144</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1711">
-        <v>43147</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1712">
-        <v>43148</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1713">
-        <v>43149</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1714">
-        <v>43150</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1715">
-        <v>43151</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1716">
-        <v>43154</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1717">
-        <v>43155</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1718">
-        <v>43156</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1719">
-        <v>43157</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1720">
-        <v>43158</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1721">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1722">
-        <v>43162</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1723">
-        <v>43163</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1724">
-        <v>43164</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1725">
-        <v>43165</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1726">
-        <v>43168</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1727">
-        <v>43169</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1728">
-        <v>43170</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1729">
-        <v>43171</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1730">
-        <v>43172</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1731">
-        <v>43175</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1732">
-        <v>43176</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1733">
-        <v>43177</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1734">
-        <v>43178</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1735">
-        <v>43179</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1736">
-        <v>43182</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1737">
-        <v>43183</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1738">
-        <v>43184</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1739">
-        <v>43186</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1740">
-        <v>43189</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1741">
-        <v>43190</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1742">
-        <v>43191</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1743">
-        <v>43192</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1744">
-        <v>43193</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1745">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1746">
-        <v>43197</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1747">
-        <v>43198</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1748">
-        <v>43199</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1749">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1750">
-        <v>43203</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1751">
-        <v>43204</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1752">
-        <v>43205</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1753">
-        <v>43206</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1754">
-        <v>43207</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1755">
-        <v>43210</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1756">
-        <v>43211</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1757">
-        <v>43212</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1758">
-        <v>43213</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1759">
-        <v>43214</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1760">
-        <v>43218</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1761">
-        <v>43219</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1762">
-        <v>43220</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1763">
-        <v>43221</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
